--- a/players.xlsx
+++ b/players.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iwan/code/com/image_generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iwan/Documents/GitHub/image_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E1C7C-8D93-1247-AB85-A81F8CF546D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CE1AAD-E575-B44E-94A2-C57004975FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>Jamie Maclaren</t>
   </si>
   <si>
-    <t>iley McGree</t>
-  </si>
-  <si>
     <t>Ajdin Hrustić</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Marquinhos</t>
   </si>
   <si>
-    <t>Ederson</t>
-  </si>
-  <si>
     <t>Thiago Silva</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
     <t>Luka Modrić</t>
   </si>
   <si>
-    <t> Ivica Ivušić</t>
-  </si>
-  <si>
     <t>Kasper Schmeichel</t>
   </si>
   <si>
@@ -376,9 +367,6 @@
     <t>Lucas Hernandez</t>
   </si>
   <si>
-    <t>Presnel Kimpembe</t>
-  </si>
-  <si>
     <t>Jules Kounde</t>
   </si>
   <si>
@@ -412,12 +400,6 @@
     <t>Antoine Griezmann</t>
   </si>
   <si>
-    <t>Mike Maignan</t>
-  </si>
-  <si>
-    <t>Christopher Nkunku</t>
-  </si>
-  <si>
     <t>Manuel Neuer</t>
   </si>
   <si>
@@ -427,9 +409,6 @@
     <t>Antonio Rudiger</t>
   </si>
   <si>
-    <t>Marc-André ter Stegen</t>
-  </si>
-  <si>
     <t>Thomas Müller</t>
   </si>
   <si>
@@ -463,9 +442,6 @@
     <t>Niclas Füllkrug</t>
   </si>
   <si>
-    <t>Joe Wollacott</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -499,15 +475,9 @@
     <t>Ehsan Hajsafi</t>
   </si>
   <si>
-    <t>Amir Abedzadeh</t>
-  </si>
-  <si>
     <t>Alireza Jahanbakhsh</t>
   </si>
   <si>
-    <t>Shuichi Gonda</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -607,9 +577,6 @@
     <t>Yassine Bounou</t>
   </si>
   <si>
-    <t>Justin Bijlow</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
@@ -679,12 +646,6 @@
     <t>Joao Cancelo</t>
   </si>
   <si>
-    <t> Rafael Leão</t>
-  </si>
-  <si>
-    <t>Diogo Costa</t>
-  </si>
-  <si>
     <t>Nuno Mendes</t>
   </si>
   <si>
@@ -947,16 +908,60 @@
   </si>
   <si>
     <t>Brennan Johnson</t>
+  </si>
+  <si>
+    <t>Riley McGree</t>
+  </si>
+  <si>
+    <t>Mislav Oršić</t>
+  </si>
+  <si>
+    <t>Dayot Upamecano</t>
+  </si>
+  <si>
+    <t>William Saliba</t>
+  </si>
+  <si>
+    <t>Aurélien Tchouaméni </t>
+  </si>
+  <si>
+    <t>Lawrence Ati-Zigi</t>
+  </si>
+  <si>
+    <t>Firas Al-Buraikan</t>
+  </si>
+  <si>
+    <t>Alvaro Morata</t>
+  </si>
+  <si>
+    <t>Seifeddine Jaziri </t>
+  </si>
+  <si>
+    <t>Joaquín Correa</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Julian Brandt</t>
+  </si>
+  <si>
+    <t>Luuk de Jong</t>
+  </si>
+  <si>
+    <t>Shuto Machino</t>
+  </si>
+  <si>
+    <t>Rafael Leão</t>
+  </si>
+  <si>
+    <t>Karim Ansarifard</t>
   </si>
   <si>
     <t>Lautaro Martínez</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t> Joaquín Correa</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Alisson Becker</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -966,95 +971,70 @@
   </si>
   <si>
     <t>Vinicius Junior</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Dominik Livakovic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Marcelo Brozovic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Mateo Kovacic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Mario Pasalic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Nikola Vlasic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Andrej Kramaric</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Bruno Petkovic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Ivan Perisic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Rasmus Hojlund</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Kylian Mbappé</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Aurélien Tchouaméni </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Theo Hernandez</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Ousmane Dembele</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andre Ayew</t>
   </si>
   <si>
     <t>Jurrien Timber</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Ruben Neves</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firas-Al-Buraikan</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Salman-Al-Faraj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Sadio Mane</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Ismaila Sarr</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Vanja Milinkovic-Savic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Nemanja Radonjic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Sasa Lukic</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Dušan Vlahović</t>
@@ -1062,18 +1042,13 @@
   </si>
   <si>
     <t>Eric Garcia</t>
+  </si>
+  <si>
+    <t>Marcus Thuram</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Álvaro Morata</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seifeddine Jaziri</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andre Ayew</t>
+    <t>Andre Silva</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1081,7 +1056,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1092,52 +1067,8 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helvetica Neue"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1149,12 +1080,51 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -1290,7 +1260,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1360,19 +1330,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2499,8 +2463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="203" zoomScaleNormal="203" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="203" zoomScaleNormal="203" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2693,8 +2657,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>309</v>
+      <c r="B11" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -2744,8 +2708,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>310</v>
+      <c r="B14" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
@@ -2813,7 +2777,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>23</v>
@@ -2830,7 +2794,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>23</v>
@@ -2847,7 +2811,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>23</v>
@@ -2864,7 +2828,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>23</v>
@@ -2881,7 +2845,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>23</v>
@@ -2898,7 +2862,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>23</v>
@@ -2915,7 +2879,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>23</v>
@@ -2932,10 +2896,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>7</v>
@@ -2949,10 +2913,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>13</v>
@@ -2966,10 +2930,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>13</v>
@@ -2983,10 +2947,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>9</v>
@@ -3000,10 +2964,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>13</v>
@@ -3017,10 +2981,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>13</v>
@@ -3034,10 +2998,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>17</v>
@@ -3051,10 +3015,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>13</v>
@@ -3068,10 +3032,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>13</v>
@@ -3085,10 +3049,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>13</v>
@@ -3102,10 +3066,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>17</v>
@@ -3119,10 +3083,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>13</v>
@@ -3136,10 +3100,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>13</v>
@@ -3153,10 +3117,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>17</v>
@@ -3170,10 +3134,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>13</v>
@@ -3186,11 +3150,11 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>311</v>
+      <c r="B40" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>7</v>
@@ -3203,11 +3167,11 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>312</v>
+      <c r="B41" s="24" t="s">
+        <v>314</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>9</v>
@@ -3221,10 +3185,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>9</v>
@@ -3238,10 +3202,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>9</v>
@@ -3255,13 +3219,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>51</v>
+        <v>306</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E44" s="9">
         <v>23</v>
@@ -3272,10 +3236,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>9</v>
@@ -3289,10 +3253,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>13</v>
@@ -3306,10 +3270,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>13</v>
@@ -3323,10 +3287,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>17</v>
@@ -3340,10 +3304,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>17</v>
@@ -3357,10 +3321,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>13</v>
@@ -3374,10 +3338,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>17</v>
@@ -3391,10 +3355,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>17</v>
@@ -3408,10 +3372,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>17</v>
@@ -3425,10 +3389,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>17</v>
@@ -3441,11 +3405,11 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>313</v>
+      <c r="B55" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>17</v>
@@ -3459,10 +3423,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>7</v>
@@ -3476,10 +3440,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>17</v>
@@ -3493,10 +3457,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>17</v>
@@ -3510,10 +3474,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>17</v>
@@ -3527,10 +3491,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>17</v>
@@ -3544,10 +3508,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>17</v>
@@ -3561,10 +3525,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>9</v>
@@ -3578,10 +3542,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>17</v>
@@ -3595,10 +3559,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>17</v>
@@ -3612,10 +3576,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>17</v>
@@ -3629,10 +3593,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>7</v>
@@ -3646,10 +3610,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>7</v>
@@ -3663,10 +3627,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>17</v>
@@ -3680,10 +3644,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>17</v>
@@ -3697,10 +3661,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>13</v>
@@ -3713,11 +3677,11 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="25" t="s">
-        <v>314</v>
+      <c r="B71" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>7</v>
@@ -3730,11 +3694,11 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="25" t="s">
-        <v>315</v>
+      <c r="B72" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>13</v>
@@ -3747,11 +3711,11 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="25" t="s">
-        <v>316</v>
+      <c r="B73" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>13</v>
@@ -3765,10 +3729,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>13</v>
@@ -3781,11 +3745,11 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="25" t="s">
-        <v>317</v>
+      <c r="B75" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>13</v>
@@ -3798,11 +3762,11 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="25" t="s">
-        <v>318</v>
+      <c r="B76" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>13</v>
@@ -3816,27 +3780,27 @@
         <v>76</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E77" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="25" t="s">
-        <v>319</v>
+      <c r="B78" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>17</v>
@@ -3849,11 +3813,11 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="25" t="s">
-        <v>320</v>
+      <c r="B79" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>17</v>
@@ -3866,11 +3830,11 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="25" t="s">
-        <v>321</v>
+      <c r="B80" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>17</v>
@@ -3884,10 +3848,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>7</v>
@@ -3901,10 +3865,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>9</v>
@@ -3918,10 +3882,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>9</v>
@@ -3935,10 +3899,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>17</v>
@@ -3951,11 +3915,11 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="25" t="s">
-        <v>322</v>
+      <c r="B85" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>17</v>
@@ -3969,10 +3933,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>17</v>
@@ -3986,10 +3950,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>17</v>
@@ -4003,10 +3967,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>17</v>
@@ -4020,10 +3984,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>13</v>
@@ -4037,10 +4001,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>7</v>
@@ -4054,10 +4018,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>13</v>
@@ -4071,10 +4035,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>17</v>
@@ -4088,10 +4052,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>17</v>
@@ -4105,10 +4069,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>7</v>
@@ -4122,10 +4086,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>9</v>
@@ -4139,10 +4103,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>9</v>
@@ -4156,10 +4120,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>9</v>
@@ -4173,10 +4137,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>9</v>
@@ -4190,10 +4154,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>9</v>
@@ -4207,10 +4171,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>13</v>
@@ -4224,10 +4188,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>17</v>
@@ -4241,10 +4205,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>13</v>
@@ -4258,10 +4222,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>13</v>
@@ -4275,10 +4239,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>13</v>
@@ -4292,10 +4256,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>13</v>
@@ -4309,10 +4273,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>13</v>
@@ -4326,10 +4290,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>17</v>
@@ -4343,10 +4307,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>13</v>
@@ -4360,10 +4324,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>17</v>
@@ -4377,10 +4341,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>17</v>
@@ -4394,10 +4358,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>7</v>
@@ -4411,10 +4375,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>9</v>
@@ -4428,10 +4392,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>118</v>
+        <v>298</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>9</v>
@@ -4445,10 +4409,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>9</v>
@@ -4462,10 +4426,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>9</v>
@@ -4479,10 +4443,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>9</v>
@@ -4496,10 +4460,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>13</v>
@@ -4513,10 +4477,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>13</v>
@@ -4530,10 +4494,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>13</v>
@@ -4547,10 +4511,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>13</v>
@@ -4564,10 +4528,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>17</v>
@@ -4580,11 +4544,11 @@
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>127</v>
+      <c r="B122" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>17</v>
@@ -4597,11 +4561,11 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>128</v>
+      <c r="B123" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>17</v>
@@ -4614,11 +4578,11 @@
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>129</v>
+      <c r="B124" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>17</v>
@@ -4631,11 +4595,11 @@
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="23" t="s">
-        <v>323</v>
+      <c r="B125" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>17</v>
@@ -4648,14 +4612,14 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="14" t="s">
-        <v>130</v>
+      <c r="B126" s="21" t="s">
+        <v>299</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E126" s="9">
         <v>16</v>
@@ -4665,11 +4629,11 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="14" t="s">
-        <v>131</v>
+      <c r="B127" s="18" t="s">
+        <v>339</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D127" s="15" t="s">
         <v>17</v>
@@ -4682,11 +4646,11 @@
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="26" t="s">
-        <v>324</v>
+      <c r="B128" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>13</v>
@@ -4699,11 +4663,11 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="26" t="s">
-        <v>325</v>
+      <c r="B129" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>9</v>
@@ -4716,11 +4680,11 @@
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="27" t="s">
-        <v>326</v>
+      <c r="B130" s="15" t="s">
+        <v>327</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>17</v>
@@ -4734,10 +4698,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>7</v>
@@ -4751,10 +4715,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>9</v>
@@ -4768,16 +4732,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>135</v>
+        <v>307</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E133" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -4785,10 +4749,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>17</v>
@@ -4802,10 +4766,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>17</v>
@@ -4819,10 +4783,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D136" s="15" t="s">
         <v>17</v>
@@ -4836,10 +4800,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>9</v>
@@ -4853,10 +4817,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D138" s="15" t="s">
         <v>13</v>
@@ -4870,10 +4834,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>13</v>
@@ -4887,10 +4851,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>13</v>
@@ -4904,10 +4868,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>13</v>
@@ -4921,10 +4885,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>13</v>
@@ -4938,10 +4902,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>17</v>
@@ -4955,10 +4919,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>17</v>
@@ -4972,10 +4936,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>147</v>
+        <v>301</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>7</v>
@@ -4989,10 +4953,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>13</v>
@@ -5006,10 +4970,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>13</v>
@@ -5023,10 +4987,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>17</v>
@@ -5040,10 +5004,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>17</v>
@@ -5057,10 +5021,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>17</v>
@@ -5073,11 +5037,11 @@
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="25" t="s">
-        <v>340</v>
+      <c r="B151" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>13</v>
@@ -5091,10 +5055,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D152" s="15" t="s">
         <v>7</v>
@@ -5108,10 +5072,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>17</v>
@@ -5125,10 +5089,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>17</v>
@@ -5142,10 +5106,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>9</v>
@@ -5159,16 +5123,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E156" s="9">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14" x14ac:dyDescent="0.15">
@@ -5176,10 +5140,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>13</v>
@@ -5193,16 +5157,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>161</v>
+        <v>309</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E158" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="17"/>
@@ -5212,10 +5176,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D159" s="15" t="s">
         <v>17</v>
@@ -5231,10 +5195,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D160" s="15" t="s">
         <v>17</v>
@@ -5250,10 +5214,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D161" s="15" t="s">
         <v>13</v>
@@ -5267,10 +5231,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D162" s="17" t="s">
         <v>13</v>
@@ -5284,10 +5248,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D163" s="17" t="s">
         <v>17</v>
@@ -5301,10 +5265,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D164" s="17" t="s">
         <v>17</v>
@@ -5318,10 +5282,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D165" s="15" t="s">
         <v>13</v>
@@ -5335,10 +5299,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>9</v>
@@ -5352,10 +5316,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>7</v>
@@ -5369,10 +5333,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>13</v>
@@ -5386,10 +5350,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>13</v>
@@ -5403,10 +5367,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>9</v>
@@ -5420,10 +5384,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>13</v>
@@ -5437,10 +5401,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>7</v>
@@ -5454,10 +5418,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>9</v>
@@ -5471,10 +5435,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>9</v>
@@ -5488,10 +5452,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>13</v>
@@ -5505,10 +5469,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>17</v>
@@ -5522,10 +5486,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>17</v>
@@ -5539,10 +5503,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>17</v>
@@ -5556,10 +5520,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>7</v>
@@ -5573,10 +5537,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>13</v>
@@ -5590,10 +5554,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>17</v>
@@ -5607,10 +5571,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>17</v>
@@ -5624,10 +5588,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>17</v>
@@ -5641,10 +5605,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>9</v>
@@ -5658,10 +5622,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>17</v>
@@ -5675,10 +5639,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>17</v>
@@ -5692,10 +5656,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>7</v>
@@ -5709,16 +5673,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E188" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -5726,10 +5690,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>9</v>
@@ -5743,10 +5707,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>9</v>
@@ -5760,10 +5724,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>9</v>
@@ -5777,10 +5741,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>9</v>
@@ -5794,10 +5758,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>17</v>
@@ -5811,10 +5775,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>17</v>
@@ -5828,10 +5792,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D195" s="15" t="s">
         <v>9</v>
@@ -5845,10 +5809,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D196" s="15" t="s">
         <v>9</v>
@@ -5862,10 +5826,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D197" s="15" t="s">
         <v>7</v>
@@ -5878,11 +5842,11 @@
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="26" t="s">
-        <v>327</v>
+      <c r="B198" s="14" t="s">
+        <v>329</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D198" s="15" t="s">
         <v>9</v>
@@ -5896,10 +5860,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>9</v>
@@ -5913,10 +5877,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>13</v>
@@ -5930,10 +5894,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>17</v>
@@ -5947,10 +5911,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>7</v>
@@ -5964,10 +5928,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>13</v>
@@ -5981,10 +5945,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>17</v>
@@ -5998,10 +5962,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>17</v>
@@ -6015,10 +5979,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>17</v>
@@ -6032,10 +5996,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>17</v>
@@ -6049,10 +6013,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>7</v>
@@ -6066,10 +6030,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>9</v>
@@ -6083,10 +6047,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D210" s="15" t="s">
         <v>17</v>
@@ -6099,11 +6063,11 @@
       <c r="A211" s="1">
         <v>210</v>
       </c>
-      <c r="B211" s="26" t="s">
-        <v>328</v>
+      <c r="B211" s="14" t="s">
+        <v>330</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D211" s="15" t="s">
         <v>13</v>
@@ -6116,17 +6080,17 @@
       <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212" s="14" t="s">
-        <v>220</v>
+      <c r="B212" s="25" t="s">
+        <v>340</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E212" s="9">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -6134,10 +6098,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D213" s="15" t="s">
         <v>9</v>
@@ -6151,10 +6115,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>13</v>
@@ -6168,10 +6132,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>9</v>
@@ -6185,10 +6149,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>13</v>
@@ -6202,10 +6166,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>13</v>
@@ -6219,10 +6183,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>9</v>
@@ -6236,10 +6200,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>17</v>
@@ -6253,16 +6217,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E220" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -6270,10 +6234,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>17</v>
@@ -6287,10 +6251,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>17</v>
@@ -6304,10 +6268,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>7</v>
@@ -6321,10 +6285,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>17</v>
@@ -6338,10 +6302,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>17</v>
@@ -6355,10 +6319,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>17</v>
@@ -6372,10 +6336,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>17</v>
@@ -6389,10 +6353,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>17</v>
@@ -6406,10 +6370,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>13</v>
@@ -6422,11 +6386,11 @@
       <c r="A230" s="1">
         <v>229</v>
       </c>
-      <c r="B230" s="23" t="s">
-        <v>329</v>
+      <c r="B230" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>17</v>
@@ -6440,10 +6404,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D231" s="15" t="s">
         <v>7</v>
@@ -6456,11 +6420,11 @@
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="26" t="s">
-        <v>330</v>
+      <c r="B232" s="14" t="s">
+        <v>331</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D232" s="15" t="s">
         <v>13</v>
@@ -6473,11 +6437,11 @@
       <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233" s="25" t="s">
-        <v>331</v>
+      <c r="B233" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>17</v>
@@ -6491,10 +6455,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>9</v>
@@ -6508,10 +6472,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>7</v>
@@ -6525,10 +6489,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D236" s="15" t="s">
         <v>17</v>
@@ -6541,11 +6505,11 @@
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="25" t="s">
-        <v>332</v>
+      <c r="B237" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D237" s="6" t="s">
         <v>17</v>
@@ -6558,11 +6522,11 @@
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="25" t="s">
-        <v>333</v>
+      <c r="B238" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>7</v>
@@ -6575,11 +6539,11 @@
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="25" t="s">
-        <v>334</v>
+      <c r="B239" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>13</v>
@@ -6593,10 +6557,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>13</v>
@@ -6610,10 +6574,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>13</v>
@@ -6626,11 +6590,11 @@
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="26" t="s">
-        <v>335</v>
+      <c r="B242" s="14" t="s">
+        <v>336</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D242" s="15" t="s">
         <v>13</v>
@@ -6644,10 +6608,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>17</v>
@@ -6661,10 +6625,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>17</v>
@@ -6678,10 +6642,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>13</v>
@@ -6694,11 +6658,11 @@
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="23" t="s">
-        <v>336</v>
+      <c r="B246" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>17</v>
@@ -6712,10 +6676,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>7</v>
@@ -6729,10 +6693,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>9</v>
@@ -6746,10 +6710,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>9</v>
@@ -6763,10 +6727,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>9</v>
@@ -6780,10 +6744,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>9</v>
@@ -6797,10 +6761,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>9</v>
@@ -6814,10 +6778,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>13</v>
@@ -6830,11 +6794,11 @@
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="24" t="s">
-        <v>337</v>
+      <c r="B254" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D254" s="16" t="s">
         <v>9</v>
@@ -6848,10 +6812,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>13</v>
@@ -6865,10 +6829,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>13</v>
@@ -6882,10 +6846,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>13</v>
@@ -6899,10 +6863,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>13</v>
@@ -6916,10 +6880,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>13</v>
@@ -6933,10 +6897,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D260" s="15" t="s">
         <v>13</v>
@@ -6950,10 +6914,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>17</v>
@@ -6967,10 +6931,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D262" s="15" t="s">
         <v>17</v>
@@ -6983,11 +6947,11 @@
       <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263" s="23" t="s">
-        <v>338</v>
+      <c r="B263" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>17</v>
@@ -7001,10 +6965,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>17</v>
@@ -7018,10 +6982,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>7</v>
@@ -7035,10 +6999,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>9</v>
@@ -7052,10 +7016,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>13</v>
@@ -7069,10 +7033,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>13</v>
@@ -7086,10 +7050,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>13</v>
@@ -7103,10 +7067,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D270" s="15" t="s">
         <v>17</v>
@@ -7120,10 +7084,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>17</v>
@@ -7137,10 +7101,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>17</v>
@@ -7154,10 +7118,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D273" s="6" t="s">
         <v>17</v>
@@ -7171,10 +7135,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>17</v>
@@ -7188,10 +7152,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D275" s="15" t="s">
         <v>7</v>
@@ -7205,10 +7169,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D276" s="15" t="s">
         <v>17</v>
@@ -7221,11 +7185,11 @@
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="26" t="s">
-        <v>339</v>
+      <c r="B277" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D277" s="15" t="s">
         <v>17</v>
@@ -7239,10 +7203,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>7</v>
@@ -7256,10 +7220,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>9</v>
@@ -7273,10 +7237,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>13</v>
@@ -7290,10 +7254,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D281" s="15" t="s">
         <v>17</v>
@@ -7307,10 +7271,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D282" s="15" t="s">
         <v>13</v>
@@ -7324,10 +7288,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D283" s="15" t="s">
         <v>17</v>
@@ -7341,10 +7305,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>13</v>
@@ -7358,10 +7322,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>13</v>
@@ -7375,10 +7339,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>17</v>
@@ -7392,10 +7356,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>17</v>
@@ -7409,10 +7373,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>17</v>
@@ -7426,10 +7390,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>7</v>
@@ -7443,10 +7407,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D290" s="15" t="s">
         <v>17</v>
@@ -7460,10 +7424,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>13</v>
@@ -7477,10 +7441,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>17</v>
@@ -7494,10 +7458,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>17</v>
@@ -7511,10 +7475,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>17</v>
@@ -7529,10 +7493,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>7</v>
@@ -7547,10 +7511,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>13</v>
@@ -7564,10 +7528,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>13</v>
@@ -7581,10 +7545,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>13</v>
@@ -7598,10 +7562,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>17</v>
@@ -7615,10 +7579,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>17</v>
@@ -7632,10 +7596,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C301" s="15" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D301" s="15" t="s">
         <v>17</v>
